--- a/brasileirao2023.xlsx
+++ b/brasileirao2023.xlsx
@@ -1474,9 +1474,15 @@
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D56" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E56" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F56" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -1488,9 +1494,15 @@
       <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D57" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E57" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F57" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -1502,9 +1514,15 @@
       <c r="C58" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D58" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E58" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F58" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -1516,9 +1534,15 @@
       <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D59" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E59" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F59" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -1530,9 +1554,15 @@
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D60" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E60" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F60" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -1544,9 +1574,15 @@
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D61" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="F61" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -1558,9 +1594,15 @@
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D62" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F62" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -1572,9 +1614,15 @@
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D63" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F63" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -1586,9 +1634,15 @@
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D64" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F64" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -1600,9 +1654,15 @@
       <c r="C65" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D65" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E65" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F65" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -1614,9 +1674,15 @@
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D66" s="2">
+        <v>4.0</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F66" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -1628,9 +1694,15 @@
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D67" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F67" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -1642,9 +1714,15 @@
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D68" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F68" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -1656,9 +1734,15 @@
       <c r="C69" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D69" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F69" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -1670,9 +1754,15 @@
       <c r="C70" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D70" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F70" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -1684,9 +1774,15 @@
       <c r="C71" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D71" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F71" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
@@ -1698,9 +1794,15 @@
       <c r="C72" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D72" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F72" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -1712,9 +1814,15 @@
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D73" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F73" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -1726,9 +1834,15 @@
       <c r="C74" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D74" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F74" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -1740,9 +1854,15 @@
       <c r="C75" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D75" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E75" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F75" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -1754,9 +1874,15 @@
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D76" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F76" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -1768,9 +1894,15 @@
       <c r="C77" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D77" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F77" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -1782,9 +1914,15 @@
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D78" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E78" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F78" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -1796,9 +1934,15 @@
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D79" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F79" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -1810,9 +1954,15 @@
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D80" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E80" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F80" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
@@ -1824,8 +1974,14 @@
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D81" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">

--- a/brasileirao2023.xlsx
+++ b/brasileirao2023.xlsx
@@ -1994,9 +1994,15 @@
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D82" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E82" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F82" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -2008,9 +2014,15 @@
       <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D83" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F83" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -2022,9 +2034,15 @@
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D84" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E84" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F84" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -2036,9 +2054,15 @@
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D85" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E85" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F85" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
@@ -2050,9 +2074,15 @@
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D86" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E86" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F86" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -2064,9 +2094,15 @@
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D87" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E87" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F87" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -2078,9 +2114,15 @@
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D88" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F88" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -2092,9 +2134,15 @@
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D89" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E89" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F89" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -2106,9 +2154,15 @@
       <c r="C90" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D90" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E90" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F90" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -2120,9 +2174,15 @@
       <c r="C91" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D91" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F91" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -2134,9 +2194,15 @@
       <c r="C92" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D92" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E92" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F92" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -2148,9 +2214,15 @@
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D93" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E93" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F93" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -2162,9 +2234,15 @@
       <c r="C94" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D94" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E94" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F94" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -2176,9 +2254,15 @@
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D95" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F95" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -2190,9 +2274,15 @@
       <c r="C96" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D96" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E96" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F96" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -2204,9 +2294,15 @@
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D97" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E97" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F97" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
@@ -2218,9 +2314,15 @@
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D98" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F98" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -2232,9 +2334,15 @@
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D99" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E99" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F99" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -2246,9 +2354,15 @@
       <c r="C100" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D100" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E100" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F100" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -2260,8 +2374,14 @@
       <c r="C101" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D101" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="102">

--- a/brasileirao2023.xlsx
+++ b/brasileirao2023.xlsx
@@ -118,12 +118,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -147,6 +153,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2394,9 +2403,15 @@
       <c r="C102" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D102" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E102" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F102" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
@@ -2408,9 +2423,15 @@
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D103" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E103" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F103" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -2422,9 +2443,15 @@
       <c r="C104" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D104" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F104" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
@@ -2436,9 +2463,15 @@
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D105" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E105" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F105" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -2450,9 +2483,15 @@
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D106" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E106" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F106" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
@@ -2464,9 +2503,15 @@
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D107" s="2">
+        <v>4.0</v>
+      </c>
       <c r="E107" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F107" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -2478,9 +2523,15 @@
       <c r="C108" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D108" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E108" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F108" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -2492,9 +2543,15 @@
       <c r="C109" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D109" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F109" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
@@ -2506,9 +2563,15 @@
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D110" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E110" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F110" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -2520,9 +2583,15 @@
       <c r="C111" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D111" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F111" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -2534,9 +2603,15 @@
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D112" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E112" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F112" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
@@ -2548,9 +2623,15 @@
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D113" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E113" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F113" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
@@ -2562,9 +2643,15 @@
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D114" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E114" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F114" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -2576,9 +2663,15 @@
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D115" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E115" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F115" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -2590,9 +2683,15 @@
       <c r="C116" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D116" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F116" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -2604,9 +2703,15 @@
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D117" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E117" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F117" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -2618,9 +2723,15 @@
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D118" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F118" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
@@ -2632,9 +2743,15 @@
       <c r="C119" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D119" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E119" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F119" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -2646,9 +2763,15 @@
       <c r="C120" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D120" s="2">
+        <v>5.0</v>
+      </c>
       <c r="E120" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F120" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
@@ -2660,9 +2783,15 @@
       <c r="C121" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D121" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E121" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F121" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
@@ -2674,9 +2803,15 @@
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D122" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E122" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F122" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
@@ -2688,9 +2823,15 @@
       <c r="C123" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D123" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E123" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F123" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
@@ -2702,9 +2843,15 @@
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D124" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E124" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F124" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
@@ -2716,9 +2863,15 @@
       <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D125" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F125" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -2730,9 +2883,15 @@
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D126" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E126" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F126" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -2744,9 +2903,15 @@
       <c r="C127" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D127" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E127" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F127" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
@@ -2758,9 +2923,15 @@
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D128" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E128" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F128" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
@@ -2772,9 +2943,15 @@
       <c r="C129" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D129" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E129" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F129" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -2786,9 +2963,15 @@
       <c r="C130" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D130" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E130" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F130" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
@@ -2800,9 +2983,15 @@
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D131" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E131" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F131" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -2814,9 +3003,15 @@
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D132" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E132" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F132" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
@@ -2828,9 +3023,15 @@
       <c r="C133" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D133" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E133" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F133" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
@@ -2842,9 +3043,15 @@
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D134" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E134" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F134" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
@@ -2856,9 +3063,15 @@
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D135" s="2">
+        <v>4.0</v>
+      </c>
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F135" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -2870,9 +3083,15 @@
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D136" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F136" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
@@ -2884,9 +3103,15 @@
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D137" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E137" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F137" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
@@ -2898,9 +3123,15 @@
       <c r="C138" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D138" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E138" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F138" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
@@ -2912,9 +3143,15 @@
       <c r="C139" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D139" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F139" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
@@ -2926,9 +3163,15 @@
       <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D140" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E140" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F140" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
@@ -2940,9 +3183,15 @@
       <c r="C141" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D141" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E141" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F141" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
@@ -2954,9 +3203,15 @@
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D142" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E142" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F142" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
@@ -2968,9 +3223,15 @@
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D143" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E143" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F143" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -2982,9 +3243,15 @@
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D144" s="2">
+        <v>4.0</v>
+      </c>
       <c r="E144" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F144" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
@@ -2996,9 +3263,15 @@
       <c r="C145" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D145" s="5">
+        <v>0.0</v>
+      </c>
       <c r="E145" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F145" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
@@ -3010,9 +3283,15 @@
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D146" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E146" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F146" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
@@ -3024,9 +3303,15 @@
       <c r="C147" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D147" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E147" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F147" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -3038,9 +3323,15 @@
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D148" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E148" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F148" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -3052,9 +3343,15 @@
       <c r="C149" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D149" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E149" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F149" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -3066,9 +3363,15 @@
       <c r="C150" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D150" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E150" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F150" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
@@ -3080,9 +3383,15 @@
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D151" s="5">
+        <v>0.0</v>
+      </c>
       <c r="E151" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F151" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -3094,9 +3403,15 @@
       <c r="C152" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D152" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F152" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -3108,9 +3423,15 @@
       <c r="C153" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D153" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F153" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -3122,9 +3443,15 @@
       <c r="C154" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D154" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E154" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F154" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -3136,9 +3463,15 @@
       <c r="C155" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D155" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F155" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -3150,9 +3483,15 @@
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D156" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E156" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F156" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -3164,9 +3503,15 @@
       <c r="C157" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D157" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E157" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F157" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -3178,9 +3523,15 @@
       <c r="C158" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D158" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E158" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F158" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -3192,9 +3543,15 @@
       <c r="C159" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D159" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E159" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F159" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -3206,9 +3563,15 @@
       <c r="C160" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D160" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E160" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F160" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
@@ -3220,9 +3583,15 @@
       <c r="C161" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D161" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E161" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F161" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -3234,9 +3603,15 @@
       <c r="C162" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D162" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E162" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F162" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -3248,9 +3623,15 @@
       <c r="C163" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D163" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E163" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F163" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
@@ -3262,9 +3643,15 @@
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D164" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E164" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F164" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -3276,9 +3663,15 @@
       <c r="C165" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D165" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F165" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -3290,9 +3683,15 @@
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D166" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E166" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F166" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -3304,9 +3703,15 @@
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D167" s="2">
+        <v>4.0</v>
+      </c>
       <c r="E167" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F167" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -3318,9 +3723,15 @@
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D168" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E168" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F168" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
@@ -3332,9 +3743,15 @@
       <c r="C169" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D169" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E169" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F169" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
@@ -3346,9 +3763,15 @@
       <c r="C170" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D170" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E170" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F170" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -3360,9 +3783,15 @@
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D171" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E171" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F171" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
@@ -3374,9 +3803,15 @@
       <c r="C172" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D172" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F172" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -3388,9 +3823,15 @@
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D173" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E173" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F173" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -3402,9 +3843,15 @@
       <c r="C174" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D174" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E174" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F174" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
@@ -3416,9 +3863,15 @@
       <c r="C175" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D175" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E175" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F175" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
@@ -3430,9 +3883,15 @@
       <c r="C176" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D176" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E176" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F176" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -3444,9 +3903,15 @@
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D177" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E177" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F177" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
@@ -3458,9 +3923,15 @@
       <c r="C178" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D178" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E178" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F178" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
@@ -3472,9 +3943,15 @@
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D179" s="2">
+        <v>2.0</v>
+      </c>
       <c r="E179" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F179" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -3486,9 +3963,15 @@
       <c r="C180" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D180" s="2">
+        <v>0.0</v>
+      </c>
       <c r="E180" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F180" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -3500,8 +3983,14 @@
       <c r="C181" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D181" s="2">
+        <v>3.0</v>
+      </c>
       <c r="E181" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="F181" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
